--- a/OpenDataForHealth/France/References/References - general.xlsx
+++ b/OpenDataForHealth/France/References/References - general.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\2021\epidemium\EPIDEMIUM-Season-3\OpenDataForHealth\France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\2021\epidemium\EPIDEMIUM-Season-3\OpenDataForHealth\France\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10FA8C1-78B8-4B1C-8189-A8C948D59135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6E28A4-0728-4C57-94C3-387747364612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>URL</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Accès aux soins. Plus la valeur de l'indice est faible, plus l'accessibilité est forte (en 2013)</t>
-  </si>
-  <si>
-    <t>Abandonned</t>
   </si>
   <si>
     <t>Shape format available</t>
@@ -164,9 +161,6 @@
     <t>Each death in France, at individual level!</t>
   </si>
   <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
     <t>Amazing... but the data is not clean and it shows the city of the hospital, not home of the person</t>
   </si>
   <si>
@@ -300,6 +294,15 @@
   </si>
   <si>
     <t>Advanced statistics for geographic over- under- mortality</t>
+  </si>
+  <si>
+    <t>Base permanente des équipements</t>
+  </si>
+  <si>
+    <t>https://www.insee.fr/fr/metadonnees/source/serie/s1161?debut=0</t>
+  </si>
+  <si>
+    <t>Tried, stopped</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -459,6 +462,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -680,8 +688,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.40625" defaultRowHeight="15.75" customHeight="1"/>
@@ -740,59 +748,76 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
+      <c r="A8" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="14.25">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
+      <c r="A9" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -801,86 +826,78 @@
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25">
-      <c r="A13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="E16" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25">
-      <c r="A18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" s="13" customFormat="1" ht="13">
+      <c r="A18" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="13">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -889,27 +906,27 @@
     </row>
     <row r="20" spans="1:6" ht="13">
       <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
@@ -920,10 +937,10 @@
     </row>
     <row r="22" spans="1:6" ht="14.25">
       <c r="A22" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>23</v>
@@ -934,10 +951,10 @@
     </row>
     <row r="23" spans="1:6" ht="14.25">
       <c r="A23" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
@@ -948,10 +965,10 @@
     </row>
     <row r="24" spans="1:6" ht="13">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
@@ -962,10 +979,10 @@
     </row>
     <row r="25" spans="1:6" ht="13">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>23</v>
@@ -976,10 +993,10 @@
     </row>
     <row r="26" spans="1:6" ht="13">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>23</v>
@@ -987,10 +1004,10 @@
     </row>
     <row r="27" spans="1:6" ht="13">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>23</v>
@@ -1001,10 +1018,10 @@
     </row>
     <row r="28" spans="1:6" ht="13">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>23</v>
@@ -1015,10 +1032,10 @@
     </row>
     <row r="29" spans="1:6" ht="13">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>23</v>
@@ -1027,10 +1044,10 @@
         <v>24</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13">
@@ -1039,16 +1056,16 @@
     </row>
     <row r="31" spans="1:6" ht="13">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="13">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>23</v>
@@ -1056,111 +1073,111 @@
     </row>
     <row r="33" spans="1:7" ht="13">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="13.25">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="13">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="13">
       <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="13">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="13">
       <c r="A40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="13">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="13">
       <c r="G42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="13">
       <c r="A43" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="13">
       <c r="A45" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E45" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="A7" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="A8" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="A10" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="A12" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="A13" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="A15" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="A16" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="A17" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="A18" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="A14" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="A17" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
     <hyperlink ref="A20" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
     <hyperlink ref="A21" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
     <hyperlink ref="A22" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
